--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PyCharm_DCO\MDCO-DigitalE2E\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Storage\OpenPyXL_readExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B49FEC-7108-439B-AB18-BCEC713717A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93047C23-192B-4918-8FE8-BE18E55E4E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="499" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="559">
   <si>
     <t>Scenario#</t>
   </si>
@@ -1921,6 +1921,9 @@
   </si>
   <si>
     <t>DOE</t>
+  </si>
+  <si>
+    <t>fff</t>
   </si>
 </sst>
 </file>
@@ -2415,16 +2418,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2734,14 +2728,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AJ45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="AH3" sqref="AH3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5703125" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -2779,7 +2772,7 @@
     <col min="81" max="16384" width="6.5703125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2889,7 +2882,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="56" t="s">
         <v>36</v>
       </c>
@@ -2987,7 +2980,9 @@
       <c r="AG2" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="AH2" s="8"/>
+      <c r="AH2" s="8" t="s">
+        <v>558</v>
+      </c>
       <c r="AI2" s="20"/>
       <c r="AJ2" s="8"/>
     </row>
@@ -3093,7 +3088,7 @@
       <c r="AI3" s="8"/>
       <c r="AJ3" s="8"/>
     </row>
-    <row r="4" spans="1:36" ht="116.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" ht="116.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="56" t="s">
         <v>70</v>
       </c>
@@ -3915,7 +3910,7 @@
       <c r="AI12" s="8"/>
       <c r="AJ12" s="8"/>
     </row>
-    <row r="13" spans="1:36" ht="58.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="56" t="s">
         <v>170</v>
       </c>
@@ -4191,7 +4186,7 @@
       <c r="AI15" s="8"/>
       <c r="AJ15" s="8"/>
     </row>
-    <row r="16" spans="1:36" ht="104.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" ht="104.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="56" t="s">
         <v>204</v>
       </c>
@@ -4283,7 +4278,7 @@
       <c r="AI16" s="8"/>
       <c r="AJ16" s="8"/>
     </row>
-    <row r="17" spans="1:36" s="44" customFormat="1" ht="93" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" s="44" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
         <v>218</v>
       </c>
@@ -4385,7 +4380,7 @@
       <c r="AI17" s="8"/>
       <c r="AJ17" s="8"/>
     </row>
-    <row r="18" spans="1:36" s="44" customFormat="1" ht="93" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" s="44" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="56" t="s">
         <v>234</v>
       </c>
@@ -4763,7 +4758,7 @@
       <c r="AI21" s="8"/>
       <c r="AJ21" s="8"/>
     </row>
-    <row r="22" spans="1:36" s="44" customFormat="1" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" s="44" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="71" t="s">
         <v>275</v>
       </c>
@@ -6090,7 +6085,7 @@
       <c r="AI35" s="8"/>
       <c r="AJ35" s="8"/>
     </row>
-    <row r="36" spans="1:36" s="44" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="70" t="s">
         <v>426</v>
       </c>
@@ -6785,7 +6780,7 @@
       <c r="AI43" s="8"/>
       <c r="AJ43" s="8"/>
     </row>
-    <row r="44" spans="1:36" ht="104.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" ht="104.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="83" t="s">
         <v>491</v>
       </c>
@@ -6883,7 +6878,7 @@
       <c r="AI44" s="8"/>
       <c r="AJ44" s="8"/>
     </row>
-    <row r="45" spans="1:36" ht="104.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" ht="104.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="83" t="s">
         <v>494</v>
       </c>
@@ -6984,11 +6979,7 @@
       <c r="AJ45" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BF45" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <colorFilter dxfId="0"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:BF45" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
